--- a/data/trans_dic/P07_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P07_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4013589517834533</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4651217358274785</v>
+        <v>0.4651217358274784</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2957250557160918</v>
+        <v>0.293756166461434</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3184101080259707</v>
+        <v>0.3184824820982237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2976151464247451</v>
+        <v>0.3001517115586709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3428779882242119</v>
+        <v>0.341368928641769</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4687818199250834</v>
+        <v>0.4686268442798397</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4416019220461657</v>
+        <v>0.4388807711156308</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4235753660077576</v>
+        <v>0.4226528576072153</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4976551186382055</v>
+        <v>0.4991886608808376</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4000205700611114</v>
+        <v>0.398936317835358</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3976566123125903</v>
+        <v>0.3972219018240375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3772790050237801</v>
+        <v>0.3807768014365281</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4415109611817886</v>
+        <v>0.441554329189207</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3516990764560481</v>
+        <v>0.3535443459736609</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3805343199075626</v>
+        <v>0.3829800928050004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3625924184592952</v>
+        <v>0.3630798571900057</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.416891350697207</v>
+        <v>0.4194866549547844</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5214804785314868</v>
+        <v>0.5240861805582555</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4980163389252394</v>
+        <v>0.4969131247649619</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4901782735647955</v>
+        <v>0.4892081143059813</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5511533486770629</v>
+        <v>0.5535890252939714</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4396509493213717</v>
+        <v>0.4394798357201442</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4414032183220397</v>
+        <v>0.4398169216778666</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4235101088226111</v>
+        <v>0.4270470353261555</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4876328577649419</v>
+        <v>0.4888827785620189</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06733757709340706</v>
+        <v>0.0667352055851059</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08749111870869641</v>
+        <v>0.08855917300201741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1060810108696884</v>
+        <v>0.1079472833293926</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1280908170974145</v>
+        <v>0.1289105112206385</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1373402694837075</v>
+        <v>0.1380658985816806</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1443416365615522</v>
+        <v>0.1440318970756026</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.153124693032101</v>
+        <v>0.1527974381385131</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1668178818463581</v>
+        <v>0.1662234895700282</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1055156638832331</v>
+        <v>0.1055028183970893</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1183255639716302</v>
+        <v>0.1181826461913328</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1334186303231148</v>
+        <v>0.1331634137634064</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1509454112809752</v>
+        <v>0.1513133920344954</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09460951685382689</v>
+        <v>0.09389534568432062</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1150892375944898</v>
+        <v>0.1166376291579624</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1369700620937403</v>
+        <v>0.1375705408987063</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1596127273890726</v>
+        <v>0.1577597614002822</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1741489245145436</v>
+        <v>0.1739794699869455</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1820861679803885</v>
+        <v>0.1806511136215404</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1873699561486506</v>
+        <v>0.1877909136467222</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1949557148748063</v>
+        <v>0.1952752929356095</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.128209327797101</v>
+        <v>0.1281347179465848</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1411669539526434</v>
+        <v>0.1426208317433337</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1567425892383754</v>
+        <v>0.1567877742145564</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1728801193843626</v>
+        <v>0.171619729183753</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.07878881659836069</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1088200952385479</v>
+        <v>0.1088200952385478</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06375215689347774</v>
+        <v>0.06079593735511064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03874908149297506</v>
+        <v>0.03869304134334965</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03968127459752092</v>
+        <v>0.03978437098983741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08259720526434683</v>
+        <v>0.08154994377475738</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.111201404309906</v>
+        <v>0.1139212681040803</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05273036914093344</v>
+        <v>0.05145479913762253</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07482538996584255</v>
+        <v>0.07344046620514307</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09437906485420643</v>
+        <v>0.09238588708642353</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09059732978244246</v>
+        <v>0.09348904750640966</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05281457355622682</v>
+        <v>0.05206073748633325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06327963645631751</v>
+        <v>0.06338911282931985</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09547949042640655</v>
+        <v>0.09366276491117487</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1141477126014399</v>
+        <v>0.1125624324693281</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09403194825926615</v>
+        <v>0.09214742997769555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08277471969670186</v>
+        <v>0.08419776932790136</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1282635609084364</v>
+        <v>0.1295824414664606</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.175888914876849</v>
+        <v>0.1798557313127244</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.107661988867011</v>
+        <v>0.1063422834732772</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1277210741638622</v>
+        <v>0.1284536240127318</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1326934914718283</v>
+        <v>0.1336610318376218</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1322411534552176</v>
+        <v>0.1334426071081971</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09313301405876542</v>
+        <v>0.09057481466282494</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09760319861132091</v>
+        <v>0.09702142359945445</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1253173515168255</v>
+        <v>0.1245528678745172</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1577346587486514</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1739424571663004</v>
+        <v>0.1739424571663005</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2863734702229391</v>
@@ -1093,7 +1093,7 @@
         <v>0.2393297931246172</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2431408052830951</v>
+        <v>0.2431408052830952</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2224187073177679</v>
@@ -1105,7 +1105,7 @@
         <v>0.1994433384338367</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2095326155488217</v>
+        <v>0.2095326155488218</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1443366462692545</v>
+        <v>0.1446178915030684</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.153347700172879</v>
+        <v>0.1532050008212565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1456064995847946</v>
+        <v>0.1467663022099243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.161764580867838</v>
+        <v>0.1612211466158365</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2697077911959559</v>
+        <v>0.2720454620559379</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.251701306906593</v>
+        <v>0.2500833801297707</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.224443699138753</v>
+        <v>0.2228367099392624</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2316292509198598</v>
+        <v>0.2314424854854695</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2128443793144414</v>
+        <v>0.2123431289396614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2070636626134531</v>
+        <v>0.2075345798702933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1884260502784094</v>
+        <v>0.1898323235993213</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2010091662077169</v>
+        <v>0.2013731927010301</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.169698834533518</v>
+        <v>0.1693543465172622</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1800452167150383</v>
+        <v>0.1811860934160803</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1712655232323738</v>
+        <v>0.1712202100768282</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1878949855192949</v>
+        <v>0.1871590321834744</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3022278479204258</v>
+        <v>0.301848903772208</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2817666128638863</v>
+        <v>0.2825186270442785</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2549599213077858</v>
+        <v>0.2547364973722529</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2546452601064674</v>
+        <v>0.2549772411517365</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.232520888144082</v>
+        <v>0.2330465522048144</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2283267121487439</v>
+        <v>0.2279425804272528</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.208820596386172</v>
+        <v>0.2089019230944172</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2186707709743551</v>
+        <v>0.2186756027725514</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>305106</v>
+        <v>303075</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>310336</v>
+        <v>310407</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>224505</v>
+        <v>226419</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>198365</v>
+        <v>197492</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>616501</v>
+        <v>616297</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>590356</v>
+        <v>586718</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>419528</v>
+        <v>418614</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>409091</v>
+        <v>410352</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>938782</v>
+        <v>936238</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>919181</v>
+        <v>918176</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>658273</v>
+        <v>664376</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>618366</v>
+        <v>618426</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>362856</v>
+        <v>364760</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>370885</v>
+        <v>373269</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>273521</v>
+        <v>273888</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>241184</v>
+        <v>242685</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>685806</v>
+        <v>689233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>665774</v>
+        <v>664299</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>485494</v>
+        <v>484533</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>453069</v>
+        <v>455071</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1031788</v>
+        <v>1031387</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1020301</v>
+        <v>1016634</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>738937</v>
+        <v>745108</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>682962</v>
+        <v>684713</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>113957</v>
+        <v>112938</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>171384</v>
+        <v>173476</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>220068</v>
+        <v>223940</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>285715</v>
+        <v>287543</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>218051</v>
+        <v>219203</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>253303</v>
+        <v>252759</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>304458</v>
+        <v>303807</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>362227</v>
+        <v>360936</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>346091</v>
+        <v>346049</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>439432</v>
+        <v>438901</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>542057</v>
+        <v>541021</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>664456</v>
+        <v>666075</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>160110</v>
+        <v>158902</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>225445</v>
+        <v>228478</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>284149</v>
+        <v>285394</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>356027</v>
+        <v>351894</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>276492</v>
+        <v>276223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>319540</v>
+        <v>317021</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>372548</v>
+        <v>373385</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>423325</v>
+        <v>424019</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>420527</v>
+        <v>420282</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>524259</v>
+        <v>529659</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>636819</v>
+        <v>637002</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>761011</v>
+        <v>755463</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35153</v>
+        <v>33523</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18570</v>
+        <v>18543</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21583</v>
+        <v>21639</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>58775</v>
+        <v>58030</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>52978</v>
+        <v>54273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24132</v>
+        <v>23548</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>41014</v>
+        <v>40255</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>69357</v>
+        <v>67892</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>93118</v>
+        <v>96090</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>49481</v>
+        <v>48775</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>69103</v>
+        <v>69223</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>138108</v>
+        <v>135480</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>62942</v>
+        <v>62068</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45064</v>
+        <v>44161</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45022</v>
+        <v>45796</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>91271</v>
+        <v>92209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>83796</v>
+        <v>85685</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49271</v>
+        <v>48667</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>70007</v>
+        <v>70409</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>97513</v>
+        <v>98224</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>135920</v>
+        <v>137155</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>87255</v>
+        <v>84858</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>106586</v>
+        <v>105950</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>181267</v>
+        <v>180161</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>472769</v>
+        <v>473690</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>523339</v>
+        <v>522852</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>491099</v>
+        <v>495011</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>569522</v>
+        <v>567609</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>911396</v>
+        <v>919295</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>893383</v>
+        <v>887640</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>791584</v>
+        <v>785916</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>863585</v>
+        <v>862889</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1416406</v>
+        <v>1413070</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1441606</v>
+        <v>1444884</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1300075</v>
+        <v>1309777</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1457113</v>
+        <v>1459752</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>555842</v>
+        <v>554713</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>614451</v>
+        <v>618344</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>577642</v>
+        <v>577489</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>661519</v>
+        <v>658928</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1021287</v>
+        <v>1020007</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1000096</v>
+        <v>1002765</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>899211</v>
+        <v>898423</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>949396</v>
+        <v>950633</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1547347</v>
+        <v>1550845</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1589642</v>
+        <v>1586967</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1440790</v>
+        <v>1441351</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1585142</v>
+        <v>1585177</v>
       </c>
     </row>
     <row r="20">
